--- a/CLUSTER-SIZES-1act.xlsx
+++ b/CLUSTER-SIZES-1act.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/thesis-graph-jupyter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC493A74-2ADC-A744-B670-A7C5AA4DF640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C230B-D163-3D49-AA9C-A0C80F605521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="8220" windowWidth="14380" windowHeight="7120" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
+    <workbookView xWindow="1960" yWindow="3800" windowWidth="22840" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>noofwater</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="AD9" sqref="AD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,8 +532,14 @@
       <c r="V1" t="s">
         <v>13</v>
       </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
       </c>
       <c r="Z1" t="s">
         <v>24</v>

--- a/CLUSTER-SIZES-1act.xlsx
+++ b/CLUSTER-SIZES-1act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C230B-D163-3D49-AA9C-A0C80F605521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC0020C-4725-C843-9416-698E3E64969A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="3800" windowWidth="22840" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
+    <workbookView xWindow="1380" yWindow="2360" windowWidth="19540" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,7 +934,7 @@
         <v>2755.2</v>
       </c>
       <c r="C6">
-        <v>244.76300000000001</v>
+        <v>244.8</v>
       </c>
       <c r="D6">
         <v>511.512</v>
@@ -1027,7 +1027,7 @@
         <v>2755.25</v>
       </c>
       <c r="C7">
-        <v>244.79</v>
+        <v>244.8</v>
       </c>
       <c r="D7">
         <v>511.56700000000001</v>

--- a/CLUSTER-SIZES-1act.xlsx
+++ b/CLUSTER-SIZES-1act.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC0020C-4725-C843-9416-698E3E64969A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66EE2B-9030-9F41-B6FA-95565EA575D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2360" windowWidth="19540" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
+    <workbookView xWindow="200" yWindow="10840" windowWidth="19540" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55387CED-37BE-2A46-9802-6A940C968A22}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CLUSTER-SIZES-1act.xlsx
+++ b/CLUSTER-SIZES-1act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66EE2B-9030-9F41-B6FA-95565EA575D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B03ABC-2440-2146-A147-499AF5C7397E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="10840" windowWidth="19540" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
+    <workbookView xWindow="1620" yWindow="6580" windowWidth="11700" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55387CED-37BE-2A46-9802-6A940C968A22}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>516.22</v>
       </c>
       <c r="S3">
-        <v>193.06</v>
+        <v>193.36</v>
       </c>
       <c r="T3">
         <v>192.52</v>
@@ -798,7 +798,7 @@
         <v>516.46500000000003</v>
       </c>
       <c r="S4">
-        <v>193.09</v>
+        <v>193.41</v>
       </c>
       <c r="T4">
         <v>192.55</v>
@@ -891,7 +891,7 @@
         <v>516.41</v>
       </c>
       <c r="S5">
-        <v>193.12</v>
+        <v>193.42</v>
       </c>
       <c r="T5">
         <v>192.57</v>
@@ -984,7 +984,7 @@
         <v>516.05669999999998</v>
       </c>
       <c r="S6">
-        <v>192.87</v>
+        <v>193.2</v>
       </c>
       <c r="T6">
         <v>192.35</v>
@@ -1077,7 +1077,7 @@
         <v>516.13800000000003</v>
       </c>
       <c r="S7">
-        <v>192.93</v>
+        <v>193.22</v>
       </c>
       <c r="T7">
         <v>192.38</v>
@@ -1092,7 +1092,7 @@
         <v>10.299702399999999</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f>W7*27.211</f>
         <v>280.26520200639999</v>
       </c>
       <c r="Y7">

--- a/CLUSTER-SIZES-1act.xlsx
+++ b/CLUSTER-SIZES-1act.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B03ABC-2440-2146-A147-499AF5C7397E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA3C9A0-EF1D-C349-8EAC-A3E17CD67656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="6580" windowWidth="11700" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
+    <workbookView xWindow="960" yWindow="1060" windowWidth="18740" windowHeight="11560" xr2:uid="{66FEA771-CEBD-3F41-A3DD-F4748892B5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55387CED-37BE-2A46-9802-6A940C968A22}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>515.404</v>
       </c>
       <c r="S2">
-        <v>193.17</v>
+        <v>193.47</v>
       </c>
       <c r="T2">
         <v>192.63</v>
@@ -638,7 +638,7 @@
         <v>541.53240027842992</v>
       </c>
       <c r="AA2">
-        <v>208.79</v>
+        <v>209.16</v>
       </c>
       <c r="AB2">
         <v>208.33</v>
@@ -720,7 +720,7 @@
         <v>10.30427132</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X7" si="2">W3*27.211</f>
+        <f t="shared" ref="X3:X6" si="2">W3*27.211</f>
         <v>280.38952688851998</v>
       </c>
       <c r="Y3">
@@ -731,7 +731,7 @@
         <v>542.43650588957007</v>
       </c>
       <c r="AA3">
-        <v>208.68</v>
+        <v>208.98</v>
       </c>
       <c r="AB3">
         <v>208.11</v>
@@ -824,7 +824,7 @@
         <v>542.70808473085003</v>
       </c>
       <c r="AA4">
-        <v>208.71</v>
+        <v>209.03</v>
       </c>
       <c r="AB4">
         <v>208.16</v>
@@ -917,7 +917,7 @@
         <v>542.64515874913002</v>
       </c>
       <c r="AA5">
-        <v>208.74</v>
+        <v>209.08</v>
       </c>
       <c r="AB5">
         <v>208.24</v>
@@ -1010,7 +1010,7 @@
         <v>542.27711908972992</v>
       </c>
       <c r="AA6">
-        <v>208.49</v>
+        <v>208.86</v>
       </c>
       <c r="AB6">
         <v>208.03</v>
@@ -1103,7 +1103,7 @@
         <v>542.35201709512</v>
       </c>
       <c r="AA7">
-        <v>208.55</v>
+        <v>208.89</v>
       </c>
       <c r="AB7">
         <v>208.06</v>
